--- a/test/configs/data/test/3n_3c_1gext_1h_1bext_2l.xlsx
+++ b/test/configs/data/test/3n_3c_1gext_1h_1bext_2l.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Carrier" sheetId="1" r:id="rId1"/>
@@ -1552,8 +1552,8 @@
   </sheetPr>
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1724,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="4">
-        <v>19711.869183731302</v>
+        <v>400000</v>
       </c>
       <c r="I2" s="4">
         <v>725545.55299179</v>
@@ -2240,7 +2240,7 @@
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
